--- a/biology/Botanique/Meliorchis/Meliorchis.xlsx
+++ b/biology/Botanique/Meliorchis/Meliorchis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meliorchis caribea
-Meliorchis caribea est une espèce éteinte[2] de plantes à fleurs de la famille des orchidées[2]. Elle appartiendrait à la sous-tribu des Goodyerinae[2]. C'est la seule espèce du genre Meliorchis[1].
+Meliorchis caribea est une espèce éteinte de plantes à fleurs de la famille des orchidées. Elle appartiendrait à la sous-tribu des Goodyerinae. C'est la seule espèce du genre Meliorchis.
 Elle date du Miocène inférieur à moyen, des étages Burdigalien et Langhien, soit il y a environ entre 20,4 et 13,8 Ma (millions d'années).
-Elle n'est connue que par une pollinie (petit globule contenant le pollen chez les orchidées) découverte attachée à une aile d'abeille sans dard (Proplebeia dominicana) piégée dans de l'ambre dominicain (ambre de la République dominicaine)[1].
+Elle n'est connue que par une pollinie (petit globule contenant le pollen chez les orchidées) découverte attachée à une aile d'abeille sans dard (Proplebeia dominicana) piégée dans de l'ambre dominicain (ambre de la République dominicaine).
 </t>
         </is>
       </c>
